--- a/data/06.junio/listado_junio_con_pdf.xlsx
+++ b/data/06.junio/listado_junio_con_pdf.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qv6K/hKggAbfewvkBPOheA3cI9NUaPtD19D6olSthjg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="B6hsjE8za/5eyYm0NUPXS5YfWVE6lf/WzjkZb5H4yTA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="516">
   <si>
     <t>NºOrden</t>
   </si>
@@ -227,6 +227,9 @@
     <t>AGUSTIN VILAPLANA S.L.</t>
   </si>
   <si>
+    <t>BKA SPORT 000225.PDF</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22/000225</t>
   </si>
   <si>
@@ -242,6 +245,9 @@
     <t>BKA ASESORES INVESTIGACION, S.</t>
   </si>
   <si>
+    <t>JHK 2231132_ESCL007255.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">   2231132</t>
   </si>
   <si>
@@ -254,9 +260,15 @@
     <t>JHK TRADER SL</t>
   </si>
   <si>
+    <t>JHK 2231214_ESCL007255.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">   2231214</t>
   </si>
   <si>
+    <t>TOP TEX FACTURA BUZOSALAOCREATIVE - F22020991.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> F22020991</t>
   </si>
   <si>
@@ -497,6 +509,9 @@
     <t>2206108495</t>
   </si>
   <si>
+    <t>SHENZHENSHIPENGCHUANGLONGYING CN-IT-170705221-2022-20.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">   2022-20</t>
   </si>
   <si>
@@ -524,6 +539,9 @@
     <t>COSTCO WHOLESALE SPAIN, S.L.U.</t>
   </si>
   <si>
+    <t>MERKAL CALZADOS FVC0003047.pdf</t>
+  </si>
+  <si>
     <t>FVC0003047</t>
   </si>
   <si>
@@ -755,6 +773,9 @@
     <t xml:space="preserve">   A825401</t>
   </si>
   <si>
+    <t>MARCAJES GALAN F22-1366.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">  F22/1366</t>
   </si>
   <si>
@@ -806,6 +827,9 @@
     <t xml:space="preserve"> F22022909</t>
   </si>
   <si>
+    <t>AMAZON ES21RUR8AEUI.pdf</t>
+  </si>
+  <si>
     <t>21RUR8AEUI</t>
   </si>
   <si>
@@ -818,6 +842,9 @@
     <t>AMAZON EU S..R.L</t>
   </si>
   <si>
+    <t>MAKITO 2206116803.pdf</t>
+  </si>
+  <si>
     <t>2206116803</t>
   </si>
   <si>
@@ -827,6 +854,9 @@
     <t>2022/38238</t>
   </si>
   <si>
+    <t>VALENTO FACTURA ELECTRONICA A826043.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">   A826043</t>
   </si>
   <si>
@@ -839,6 +869,9 @@
     <t>BOSQUE HOTELEROS,S.L.</t>
   </si>
   <si>
+    <t>ADIVIN F2022_119296.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22_119296</t>
   </si>
   <si>
@@ -851,15 +884,24 @@
     <t>2022/38613</t>
   </si>
   <si>
+    <t>GOR FACTORY INV_220129768_ES.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 220129768</t>
   </si>
   <si>
+    <t>NEW WAVE Invoice_40310723.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">  40310723</t>
   </si>
   <si>
     <t>17/06</t>
   </si>
   <si>
+    <t>SAXOPRINT F-606107874.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 606107874</t>
   </si>
   <si>
@@ -872,6 +914,9 @@
     <t>SAXO PRINT</t>
   </si>
   <si>
+    <t>SERED Factura-SH-2022-90923.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">  22-90923</t>
   </si>
   <si>
@@ -1484,6 +1529,9 @@
     <t>2022058061</t>
   </si>
   <si>
+    <t>TIPSA FACTURA 2022015915.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22/015915</t>
   </si>
   <si>
@@ -1494,6 +1542,9 @@
   </si>
   <si>
     <t>MAAN ENVIOS, S.L.</t>
+  </si>
+  <si>
+    <t>TIPSA FACTURA 2022015916.pdf</t>
   </si>
   <si>
     <t xml:space="preserve"> 22/015916</t>
@@ -1842,7 +1893,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.29"/>
-    <col customWidth="1" min="2" max="2" width="63.0"/>
+    <col customWidth="1" min="2" max="2" width="53.57"/>
     <col customWidth="1" min="3" max="4" width="12.0"/>
     <col customWidth="1" min="5" max="5" width="6.43"/>
     <col customWidth="1" min="6" max="6" width="36.57"/>
@@ -1897,7 +1948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="3">
         <v>698.0</v>
       </c>
@@ -1938,7 +1989,7 @@
         <v>349.8</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="3">
         <v>699.0</v>
       </c>
@@ -1979,7 +2030,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="3">
         <v>700.0</v>
       </c>
@@ -2017,7 +2068,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="3">
         <v>701.0</v>
       </c>
@@ -2058,7 +2109,7 @@
         <v>610.57</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="3">
         <v>702.0</v>
       </c>
@@ -2099,7 +2150,7 @@
         <v>254.1</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="3">
         <v>703.0</v>
       </c>
@@ -2140,7 +2191,7 @@
         <v>37.0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="3">
         <v>704.0</v>
       </c>
@@ -2178,7 +2229,7 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="3">
         <v>705.0</v>
       </c>
@@ -2219,7 +2270,7 @@
         <v>11.74</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="3">
         <v>706.0</v>
       </c>
@@ -2260,7 +2311,7 @@
         <v>286.28</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="3">
         <v>707.0</v>
       </c>
@@ -2301,7 +2352,7 @@
         <v>365.78</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="3">
         <v>708.0</v>
       </c>
@@ -2342,7 +2393,7 @@
         <v>492.95</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="3">
         <v>709.0</v>
       </c>
@@ -2383,7 +2434,7 @@
         <v>152.74</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="3">
         <v>710.0</v>
       </c>
@@ -2428,23 +2479,26 @@
       <c r="A15" s="3">
         <v>711.0</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C15" s="3">
         <v>2541.0</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" s="11">
         <v>72.0</v>
@@ -2466,23 +2520,26 @@
       <c r="A16" s="3">
         <v>712.0</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C16" s="3">
         <v>2543.0</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I16" s="11">
         <v>63.72</v>
@@ -2504,23 +2561,26 @@
       <c r="A17" s="3">
         <v>713.0</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C17" s="3">
         <v>2544.0</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I17" s="11">
         <v>204.7</v>
@@ -2542,14 +2602,17 @@
       <c r="A18" s="3">
         <v>714.0</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="3">
         <v>2547.0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>56</v>
@@ -2576,30 +2639,30 @@
         <v>843.01</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>715.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3">
         <v>2548.0</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I19" s="11">
         <v>52.82</v>
@@ -2617,21 +2680,21 @@
         <v>63.91</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>716.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C20" s="3">
         <v>2618.0</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>62</v>
@@ -2658,30 +2721,30 @@
         <v>93.44</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>717.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3">
         <v>2789.0</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I21" s="11">
         <v>310.0</v>
@@ -2699,21 +2762,21 @@
         <v>375.1</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>718.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3">
         <v>2590.0</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
@@ -2737,30 +2800,30 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <v>719.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3">
         <v>2591.0</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I23" s="11">
         <v>78.08</v>
@@ -2778,21 +2841,21 @@
         <v>94.48</v>
       </c>
     </row>
-    <row r="24" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <v>720.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C24" s="3">
         <v>2605.0</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>50</v>
@@ -2819,21 +2882,21 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="25" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3">
         <v>721.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3">
         <v>2606.0</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>50</v>
@@ -2860,24 +2923,24 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <v>722.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C26" s="3">
         <v>2607.0</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>28</v>
@@ -2898,30 +2961,30 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="27" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3">
         <v>723.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3">
         <v>2613.0</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I27" s="11">
         <v>31.15</v>
@@ -2939,30 +3002,30 @@
         <v>37.69</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <v>724.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C28" s="3">
         <v>2614.0</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I28" s="11">
         <v>79.8</v>
@@ -2980,30 +3043,30 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="29" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <v>725.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C29" s="3">
         <v>2621.0</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I29" s="11">
         <v>730.74</v>
@@ -3021,21 +3084,21 @@
         <v>884.2</v>
       </c>
     </row>
-    <row r="30" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3">
         <v>726.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C30" s="3">
         <v>2589.0</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>47</v>
@@ -3059,30 +3122,30 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3">
         <v>727.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C31" s="3">
         <v>2615.0</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I31" s="11">
         <v>95.39</v>
@@ -3100,30 +3163,30 @@
         <v>115.42</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3">
         <v>728.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C32" s="3">
         <v>2616.0</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I32" s="11">
         <v>54.73</v>
@@ -3141,21 +3204,21 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="33" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3">
         <v>729.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C33" s="3">
         <v>2619.0</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>32</v>
@@ -3182,30 +3245,30 @@
         <v>326.48</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>730.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C34" s="3">
         <v>3129.0</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I34" s="11">
         <v>1455.94</v>
@@ -3223,21 +3286,21 @@
         <v>1761.69</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3">
         <v>731.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C35" s="3">
         <v>2620.0</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>22</v>
@@ -3264,21 +3327,21 @@
         <v>229.84</v>
       </c>
     </row>
-    <row r="36" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3">
         <v>732.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C36" s="3">
         <v>2682.0</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>32</v>
@@ -3305,30 +3368,30 @@
         <v>159.84</v>
       </c>
     </row>
-    <row r="37" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3">
         <v>733.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3">
         <v>2683.0</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I37" s="11">
         <v>146.84</v>
@@ -3346,27 +3409,27 @@
         <v>177.68</v>
       </c>
     </row>
-    <row r="38" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3">
         <v>734.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C38" s="3">
         <v>2680.0</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I38" s="11">
         <v>54.14</v>
@@ -3384,30 +3447,30 @@
         <v>65.51</v>
       </c>
     </row>
-    <row r="39" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3">
         <v>735.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C39" s="3">
         <v>2686.0</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I39" s="11">
         <v>184.81</v>
@@ -3425,21 +3488,21 @@
         <v>223.62</v>
       </c>
     </row>
-    <row r="40" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3">
         <v>736.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C40" s="3">
         <v>2762.0</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>32</v>
@@ -3466,30 +3529,30 @@
         <v>139.03</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3">
         <v>737.0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C41" s="3">
         <v>2765.0</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I41" s="11">
         <v>368.12</v>
@@ -3511,23 +3574,26 @@
       <c r="A42" s="3">
         <v>738.0</v>
       </c>
+      <c r="B42" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="C42" s="3">
         <v>2828.0</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I42" s="11">
         <v>-70.65</v>
@@ -3545,27 +3611,27 @@
         <v>-70.65</v>
       </c>
     </row>
-    <row r="43" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3">
         <v>739.0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C43" s="3">
         <v>2849.0</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I43" s="11">
         <v>51.21</v>
@@ -3583,30 +3649,30 @@
         <v>61.97</v>
       </c>
     </row>
-    <row r="44" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3">
         <v>740.0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C44" s="3">
         <v>2851.0</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I44" s="11">
         <v>71.54</v>
@@ -3628,20 +3694,23 @@
       <c r="A45" s="3">
         <v>741.0</v>
       </c>
+      <c r="B45" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="C45" s="3">
         <v>2863.0</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I45" s="11">
         <v>72.69</v>
@@ -3659,21 +3728,21 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="46" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3">
         <v>742.0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C46" s="3">
         <v>2681.0</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>50</v>
@@ -3700,30 +3769,30 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="47" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3">
         <v>743.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C47" s="3">
         <v>2685.0</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I47" s="11">
         <v>110.6</v>
@@ -3741,24 +3810,24 @@
         <v>133.83</v>
       </c>
     </row>
-    <row r="48" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3">
         <v>744.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C48" s="3">
         <v>2687.0</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>28</v>
@@ -3779,30 +3848,30 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="49" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3">
         <v>745.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C49" s="3">
         <v>2759.0</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I49" s="11">
         <v>585.0</v>
@@ -3820,30 +3889,30 @@
         <v>596.7</v>
       </c>
     </row>
-    <row r="50" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3">
         <v>746.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C50" s="3">
         <v>2761.0</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I50" s="11">
         <v>22.48</v>
@@ -3861,21 +3930,21 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="51" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3">
         <v>747.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C51" s="3">
         <v>2763.0</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>32</v>
@@ -3902,30 +3971,30 @@
         <v>119.49</v>
       </c>
     </row>
-    <row r="52" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3">
         <v>748.0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C52" s="3">
         <v>2767.0</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I52" s="11">
         <v>65.36</v>
@@ -3943,30 +4012,30 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="53" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3">
         <v>749.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C53" s="3">
         <v>2768.0</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I53" s="11">
         <v>65.36</v>
@@ -3984,30 +4053,30 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3">
         <v>750.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C54" s="3">
         <v>2770.0</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I54" s="11">
         <v>12232.72</v>
@@ -4025,30 +4094,30 @@
         <v>14801.59</v>
       </c>
     </row>
-    <row r="55" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3">
         <v>751.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C55" s="3">
         <v>2772.0</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I55" s="11">
         <v>54.73</v>
@@ -4066,30 +4135,30 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="56" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3">
         <v>752.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C56" s="3">
         <v>2773.0</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I56" s="11">
         <v>385.0</v>
@@ -4107,30 +4176,30 @@
         <v>465.85</v>
       </c>
     </row>
-    <row r="57" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3">
         <v>753.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C57" s="3">
         <v>2797.0</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I57" s="11">
         <v>26.38</v>
@@ -4148,30 +4217,30 @@
         <v>31.92</v>
       </c>
     </row>
-    <row r="58" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3">
         <v>754.0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C58" s="3">
         <v>2798.0</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I58" s="11">
         <v>44.21</v>
@@ -4194,25 +4263,25 @@
         <v>755.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C59" s="3">
         <v>2908.0</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I59" s="11">
         <v>11.55</v>
@@ -4230,30 +4299,30 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3">
         <v>756.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C60" s="3">
         <v>2766.0</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I60" s="11">
         <v>54.88</v>
@@ -4271,27 +4340,27 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="61" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3">
         <v>757.0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C61" s="3">
         <v>2858.0</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I61" s="11">
         <v>50.55</v>
@@ -4309,30 +4378,30 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="62" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3">
         <v>758.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C62" s="3">
         <v>2757.0</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I62" s="11">
         <v>81.18</v>
@@ -4350,30 +4419,30 @@
         <v>98.23</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3">
         <v>759.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C63" s="3">
         <v>2758.0</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I63" s="11">
         <v>17.01</v>
@@ -4391,21 +4460,21 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="64" ht="15.75" hidden="1" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3">
         <v>760.0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C64" s="3">
         <v>2760.0</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>50</v>
@@ -4432,21 +4501,21 @@
         <v>119.79</v>
       </c>
     </row>
-    <row r="65" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3">
         <v>761.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C65" s="3">
         <v>2764.0</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>32</v>
@@ -4473,30 +4542,30 @@
         <v>1097.46</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3">
         <v>762.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C66" s="3">
         <v>2799.0</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I66" s="11">
         <v>28.81</v>
@@ -4514,30 +4583,30 @@
         <v>34.86</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3">
         <v>763.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C67" s="3">
         <v>2769.0</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I67" s="11">
         <v>-78.6</v>
@@ -4555,30 +4624,30 @@
         <v>-78.6</v>
       </c>
     </row>
-    <row r="68" ht="15.75" hidden="1" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3">
         <v>764.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C68" s="3">
         <v>2774.0</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I68" s="11">
         <v>29.43</v>
@@ -4596,21 +4665,21 @@
         <v>35.61</v>
       </c>
     </row>
-    <row r="69" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3">
         <v>765.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C69" s="3">
         <v>2790.0</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>32</v>
@@ -4637,30 +4706,30 @@
         <v>130.26</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3">
         <v>766.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C70" s="3">
         <v>2792.0</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I70" s="11">
         <v>490.0</v>
@@ -4678,30 +4747,30 @@
         <v>592.9</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3">
         <v>767.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C71" s="3">
         <v>2793.0</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I71" s="11">
         <v>-64.5</v>
@@ -4719,21 +4788,21 @@
         <v>-78.05</v>
       </c>
     </row>
-    <row r="72" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3">
         <v>768.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C72" s="3">
         <v>2800.0</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>37</v>
@@ -4764,23 +4833,26 @@
       <c r="A73" s="3">
         <v>769.0</v>
       </c>
+      <c r="B73" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="C73" s="3">
         <v>2860.0</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I73" s="11">
         <v>15.96</v>
@@ -4798,21 +4870,21 @@
         <v>19.31</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3">
         <v>770.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C74" s="3">
         <v>2788.0</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>50</v>
@@ -4839,30 +4911,30 @@
         <v>84.82</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3">
         <v>771.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C75" s="3">
         <v>2791.0</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I75" s="11">
         <v>89.85</v>
@@ -4880,21 +4952,21 @@
         <v>108.72</v>
       </c>
     </row>
-    <row r="76" ht="15.75" hidden="1" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3">
         <v>772.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C76" s="3">
         <v>2794.0</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>22</v>
@@ -4921,30 +4993,30 @@
         <v>53.85</v>
       </c>
     </row>
-    <row r="77" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3">
         <v>773.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C77" s="3">
         <v>2795.0</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I77" s="11">
         <v>2459.5</v>
@@ -4962,21 +5034,21 @@
         <v>2976.0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3">
         <v>774.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C78" s="3">
         <v>2796.0</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>56</v>
@@ -5007,23 +5079,26 @@
       <c r="A79" s="3">
         <v>775.0</v>
       </c>
+      <c r="B79" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="C79" s="3">
         <v>2823.0</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I79" s="11">
         <v>15.35</v>
@@ -5045,23 +5120,26 @@
       <c r="A80" s="3">
         <v>776.0</v>
       </c>
+      <c r="B80" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="C80" s="3">
         <v>2824.0</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I80" s="11">
         <v>54.86</v>
@@ -5079,30 +5157,30 @@
         <v>66.38</v>
       </c>
     </row>
-    <row r="81" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3">
         <v>777.0</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C81" s="3">
         <v>2829.0</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I81" s="11">
         <v>82.79</v>
@@ -5124,14 +5202,17 @@
       <c r="A82" s="3">
         <v>778.0</v>
       </c>
+      <c r="B82" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="C82" s="3">
         <v>2831.0</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>37</v>
@@ -5158,24 +5239,24 @@
         <v>27.83</v>
       </c>
     </row>
-    <row r="83" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3">
         <v>779.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C83" s="3">
         <v>2848.0</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>28</v>
@@ -5200,23 +5281,26 @@
       <c r="A84" s="3">
         <v>780.0</v>
       </c>
+      <c r="B84" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="C84" s="3">
         <v>2822.0</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I84" s="11">
         <v>379.74</v>
@@ -5234,30 +5318,30 @@
         <v>459.49</v>
       </c>
     </row>
-    <row r="85" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3">
         <v>781.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C85" s="3">
         <v>2830.0</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I85" s="11">
         <v>48.72</v>
@@ -5279,14 +5363,17 @@
       <c r="A86" s="3">
         <v>782.0</v>
       </c>
+      <c r="B86" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="C86" s="3">
         <v>2859.0</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>32</v>
@@ -5317,23 +5404,26 @@
       <c r="A87" s="3">
         <v>783.0</v>
       </c>
+      <c r="B87" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="C87" s="3">
         <v>2825.0</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I87" s="11">
         <v>95.9</v>
@@ -5355,23 +5445,26 @@
       <c r="A88" s="3">
         <v>784.0</v>
       </c>
+      <c r="B88" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="C88" s="3">
         <v>2826.0</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="I88" s="11">
         <v>38.83</v>
@@ -5393,23 +5486,26 @@
       <c r="A89" s="3">
         <v>785.0</v>
       </c>
+      <c r="B89" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="C89" s="3">
         <v>2827.0</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="I89" s="11">
         <v>35.4</v>
@@ -5427,30 +5523,30 @@
         <v>42.83</v>
       </c>
     </row>
-    <row r="90" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3">
         <v>786.0</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C90" s="3">
         <v>2846.0</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I90" s="11">
         <v>-129.9</v>
@@ -5468,30 +5564,30 @@
         <v>-157.18</v>
       </c>
     </row>
-    <row r="91" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3">
         <v>787.0</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C91" s="3">
         <v>2847.0</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="I91" s="11">
         <v>4.05</v>
@@ -5509,21 +5605,21 @@
         <v>4.9</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3">
         <v>788.0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C92" s="3">
         <v>2850.0</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>50</v>
@@ -5550,30 +5646,30 @@
         <v>33.28</v>
       </c>
     </row>
-    <row r="93" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3">
         <v>789.0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C93" s="3">
         <v>2856.0</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I93" s="11">
         <v>73.14</v>
@@ -5591,30 +5687,30 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="94" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3">
         <v>790.0</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C94" s="3">
         <v>3278.0</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I94" s="11">
         <v>74.83</v>
@@ -5632,30 +5728,30 @@
         <v>90.55</v>
       </c>
     </row>
-    <row r="95" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3">
         <v>791.0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C95" s="3">
         <v>2904.0</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="I95" s="11">
         <v>71.25</v>
@@ -5673,30 +5769,30 @@
         <v>86.21</v>
       </c>
     </row>
-    <row r="96" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3">
         <v>792.0</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C96" s="3">
         <v>2905.0</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I96" s="11">
         <v>61.54</v>
@@ -5714,30 +5810,30 @@
         <v>74.46</v>
       </c>
     </row>
-    <row r="97" ht="15.75" hidden="1" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3">
         <v>793.0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C97" s="3">
         <v>2906.0</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I97" s="11">
         <v>-1.2</v>
@@ -5755,21 +5851,21 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="98" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3">
         <v>794.0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C98" s="3">
         <v>2907.0</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>22</v>
@@ -5796,21 +5892,21 @@
         <v>316.6</v>
       </c>
     </row>
-    <row r="99" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3">
         <v>795.0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C99" s="3">
         <v>2968.0</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>32</v>
@@ -5837,24 +5933,24 @@
         <v>64.48</v>
       </c>
     </row>
-    <row r="100" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3">
         <v>796.0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C100" s="3">
         <v>2973.0</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>28</v>
@@ -5875,21 +5971,21 @@
         <v>9.0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3">
         <v>797.0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C101" s="3">
         <v>2903.0</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>50</v>
@@ -5916,30 +6012,30 @@
         <v>798.5</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3">
         <v>798.0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C102" s="3">
         <v>2966.0</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I102" s="11">
         <v>117.73</v>
@@ -5957,21 +6053,21 @@
         <v>142.45</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3">
         <v>799.0</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C103" s="3">
         <v>2969.0</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>32</v>
@@ -5998,21 +6094,21 @@
         <v>140.19</v>
       </c>
     </row>
-    <row r="104" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3">
         <v>800.0</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C104" s="3">
         <v>2972.0</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>47</v>
@@ -6036,21 +6132,21 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="105" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3">
         <v>801.0</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C105" s="3">
         <v>3170.0</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>62</v>
@@ -6077,30 +6173,30 @@
         <v>242.96</v>
       </c>
     </row>
-    <row r="106" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3">
         <v>802.0</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C106" s="3">
         <v>3210.0</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="I106" s="11">
         <v>47.39</v>
@@ -6118,21 +6214,21 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="107" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3">
         <v>803.0</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C107" s="3">
         <v>2967.0</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>50</v>
@@ -6159,30 +6255,30 @@
         <v>133.1</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3">
         <v>804.0</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C108" s="3">
         <v>2970.0</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="I108" s="11">
         <v>96.0</v>
@@ -6200,21 +6296,21 @@
         <v>116.16</v>
       </c>
     </row>
-    <row r="109" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3">
         <v>805.0</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C109" s="3">
         <v>2971.0</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>22</v>
@@ -6241,21 +6337,21 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3">
         <v>806.0</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C110" s="3">
         <v>2998.0</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>32</v>
@@ -6282,30 +6378,30 @@
         <v>170.73</v>
       </c>
     </row>
-    <row r="111" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3">
         <v>807.0</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C111" s="3">
         <v>2999.0</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="I111" s="11">
         <v>240.08</v>
@@ -6323,30 +6419,30 @@
         <v>290.5</v>
       </c>
     </row>
-    <row r="112" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3">
         <v>808.0</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C112" s="3">
         <v>3000.0</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="I112" s="11">
         <v>186.66</v>
@@ -6364,30 +6460,30 @@
         <v>225.86</v>
       </c>
     </row>
-    <row r="113" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3">
         <v>809.0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C113" s="3">
         <v>3003.0</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="I113" s="11">
         <v>827.0</v>
@@ -6405,30 +6501,30 @@
         <v>827.0</v>
       </c>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3">
         <v>810.0</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C114" s="3">
         <v>2997.0</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="I114" s="11">
         <v>11.75</v>
@@ -6446,21 +6542,21 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="115" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3">
         <v>811.0</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C115" s="3">
         <v>3010.0</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>32</v>
@@ -6487,30 +6583,30 @@
         <v>100.58</v>
       </c>
     </row>
-    <row r="116" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3">
         <v>812.0</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C116" s="3">
         <v>3011.0</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I116" s="11">
         <v>1300.4</v>
@@ -6528,30 +6624,30 @@
         <v>1573.48</v>
       </c>
     </row>
-    <row r="117" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3">
         <v>813.0</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C117" s="3">
         <v>3015.0</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I117" s="11">
         <v>17.55</v>
@@ -6569,21 +6665,21 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="118" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3">
         <v>814.0</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C118" s="3">
         <v>3008.0</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>50</v>
@@ -6610,30 +6706,30 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="119" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3">
         <v>815.0</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C119" s="3">
         <v>3012.0</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="I119" s="11">
         <v>3.5</v>
@@ -6651,30 +6747,30 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="120" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3">
         <v>816.0</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C120" s="3">
         <v>3014.0</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I120" s="11">
         <v>82.79</v>
@@ -6692,30 +6788,30 @@
         <v>100.18</v>
       </c>
     </row>
-    <row r="121" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3">
         <v>817.0</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C121" s="3">
         <v>3013.0</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="I121" s="11">
         <v>5.32</v>
@@ -6733,30 +6829,30 @@
         <v>6.44</v>
       </c>
     </row>
-    <row r="122" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3">
         <v>818.0</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C122" s="3">
         <v>3319.0</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="I122" s="11">
         <v>3000.0</v>
@@ -6774,21 +6870,21 @@
         <v>3630.0</v>
       </c>
     </row>
-    <row r="123" ht="15.75" hidden="1" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3">
         <v>819.0</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="C123" s="3">
         <v>3009.0</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>50</v>
@@ -6815,21 +6911,21 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="124" ht="15.75" hidden="1" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3">
         <v>820.0</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C124" s="3">
         <v>3137.0</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>32</v>
@@ -6856,30 +6952,30 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="125" ht="15.75" hidden="1" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3">
         <v>821.0</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C125" s="3">
         <v>3153.0</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I125" s="11">
         <v>22.0</v>
@@ -6897,21 +6993,21 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="126" ht="15.75" hidden="1" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3">
         <v>822.0</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C126" s="3">
         <v>3180.0</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>47</v>
@@ -6935,30 +7031,30 @@
         <v>9.7</v>
       </c>
     </row>
-    <row r="127" ht="15.75" hidden="1" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3">
         <v>823.0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C127" s="3">
         <v>3187.0</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="I127" s="11">
         <v>4.55</v>
@@ -6976,27 +7072,27 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="128" ht="15.75" hidden="1" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3">
         <v>824.0</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C128" s="3">
         <v>3188.0</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I128" s="11">
         <v>93.78</v>
@@ -7014,21 +7110,21 @@
         <v>113.47</v>
       </c>
     </row>
-    <row r="129" ht="15.75" hidden="1" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3">
         <v>825.0</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C129" s="3">
         <v>3138.0</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>32</v>
@@ -7055,30 +7151,30 @@
         <v>997.43</v>
       </c>
     </row>
-    <row r="130" ht="15.75" hidden="1" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3">
         <v>826.0</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C130" s="3">
         <v>3144.0</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I130" s="11">
         <v>152.32</v>
@@ -7096,30 +7192,30 @@
         <v>184.31</v>
       </c>
     </row>
-    <row r="131" ht="15.75" hidden="1" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="3">
         <v>827.0</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="C131" s="3">
         <v>3148.0</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I131" s="11">
         <v>653.25</v>
@@ -7137,30 +7233,30 @@
         <v>790.43</v>
       </c>
     </row>
-    <row r="132" ht="15.75" hidden="1" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="3">
         <v>828.0</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="C132" s="3">
         <v>3149.0</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I132" s="11">
         <v>475.0</v>
@@ -7178,21 +7274,21 @@
         <v>574.75</v>
       </c>
     </row>
-    <row r="133" ht="15.75" hidden="1" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3">
         <v>829.0</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C133" s="3">
         <v>3158.0</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>22</v>
@@ -7219,21 +7315,21 @@
         <v>62.48</v>
       </c>
     </row>
-    <row r="134" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3">
         <v>830.0</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C134" s="3">
         <v>3177.0</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>47</v>
@@ -7257,30 +7353,30 @@
         <v>7.0</v>
       </c>
     </row>
-    <row r="135" ht="15.75" hidden="1" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3">
         <v>831.0</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C135" s="3">
         <v>3182.0</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I135" s="11">
         <v>76.01</v>
@@ -7298,21 +7394,21 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="136" ht="15.75" hidden="1" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="3">
         <v>832.0</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C136" s="3">
         <v>3131.0</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>50</v>
@@ -7339,21 +7435,21 @@
         <v>127.78</v>
       </c>
     </row>
-    <row r="137" ht="15.75" hidden="1" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="3">
         <v>833.0</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C137" s="3">
         <v>3139.0</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>32</v>
@@ -7380,30 +7476,30 @@
         <v>268.39</v>
       </c>
     </row>
-    <row r="138" ht="15.75" hidden="1" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="3">
         <v>834.0</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C138" s="3">
         <v>3156.0</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="I138" s="11">
         <v>506.6</v>
@@ -7421,21 +7517,21 @@
         <v>612.99</v>
       </c>
     </row>
-    <row r="139" ht="15.75" hidden="1" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3">
         <v>835.0</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C139" s="3">
         <v>3159.0</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>22</v>
@@ -7462,21 +7558,21 @@
         <v>97.02</v>
       </c>
     </row>
-    <row r="140" ht="15.75" hidden="1" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3">
         <v>836.0</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C140" s="3">
         <v>3178.0</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>27</v>
@@ -7500,30 +7596,30 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="141" ht="15.75" hidden="1" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="3">
         <v>837.0</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C141" s="3">
         <v>3208.0</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="I141" s="11">
         <v>172.3</v>
@@ -7541,30 +7637,30 @@
         <v>208.48</v>
       </c>
     </row>
-    <row r="142" ht="15.75" hidden="1" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="3">
         <v>838.0</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C142" s="3">
         <v>3184.0</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I142" s="11">
         <v>75.79</v>
@@ -7582,30 +7678,30 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="143" ht="15.75" hidden="1" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3">
         <v>839.0</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C143" s="3">
         <v>3133.0</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="I143" s="11">
         <v>63.69</v>
@@ -7623,30 +7719,30 @@
         <v>77.06</v>
       </c>
     </row>
-    <row r="144" ht="15.75" hidden="1" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3">
         <v>840.0</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C144" s="3">
         <v>3134.0</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="I144" s="11">
         <v>7.52</v>
@@ -7664,30 +7760,30 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="145" ht="15.75" hidden="1" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3">
         <v>841.0</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C145" s="3">
         <v>3136.0</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="I145" s="11">
         <v>62.4</v>
@@ -7705,21 +7801,21 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="146" ht="15.75" hidden="1" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3">
         <v>842.0</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C146" s="3">
         <v>3140.0</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>32</v>
@@ -7746,30 +7842,30 @@
         <v>496.18</v>
       </c>
     </row>
-    <row r="147" ht="15.75" hidden="1" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="3">
         <v>843.0</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C147" s="3">
         <v>3143.0</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="I147" s="11">
         <v>2593.65</v>
@@ -7787,30 +7883,30 @@
         <v>3138.32</v>
       </c>
     </row>
-    <row r="148" ht="15.75" hidden="1" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="3">
         <v>844.0</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="C148" s="3">
         <v>3145.0</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="I148" s="11">
         <v>286.96</v>
@@ -7828,30 +7924,30 @@
         <v>347.22</v>
       </c>
     </row>
-    <row r="149" ht="15.75" hidden="1" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="3">
         <v>845.0</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C149" s="3">
         <v>3146.0</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="I149" s="11">
         <v>33.0</v>
@@ -7869,30 +7965,30 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="150" ht="15.75" hidden="1" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="3">
         <v>846.0</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="C150" s="3">
         <v>3147.0</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="I150" s="11">
         <v>65.7</v>
@@ -7910,30 +8006,30 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="151" ht="15.75" hidden="1" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="3">
         <v>847.0</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C151" s="3">
         <v>3151.0</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I151" s="11">
         <v>1010.0</v>
@@ -7951,30 +8047,30 @@
         <v>1222.1</v>
       </c>
     </row>
-    <row r="152" ht="15.75" hidden="1" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="3">
         <v>848.0</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C152" s="3">
         <v>3152.0</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="I152" s="11">
         <v>134.23</v>
@@ -7992,30 +8088,30 @@
         <v>162.42</v>
       </c>
     </row>
-    <row r="153" ht="15.75" hidden="1" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="3">
         <v>849.0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C153" s="3">
         <v>3155.0</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I153" s="11">
         <v>69.94</v>
@@ -8033,30 +8129,30 @@
         <v>69.94</v>
       </c>
     </row>
-    <row r="154" ht="15.75" hidden="1" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="3">
         <v>850.0</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="C154" s="3">
         <v>3157.0</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="I154" s="11">
         <v>127.07</v>
@@ -8074,21 +8170,21 @@
         <v>153.75</v>
       </c>
     </row>
-    <row r="155" ht="15.75" hidden="1" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="3">
         <v>851.0</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C155" s="3">
         <v>3160.0</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>22</v>
@@ -8115,30 +8211,30 @@
         <v>-86.74</v>
       </c>
     </row>
-    <row r="156" ht="15.75" hidden="1" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="3">
         <v>852.0</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C156" s="3">
         <v>3162.0</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I156" s="11">
         <v>2448.51</v>
@@ -8156,30 +8252,30 @@
         <v>2962.7</v>
       </c>
     </row>
-    <row r="157" ht="15.75" hidden="1" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="3">
         <v>853.0</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C157" s="3">
         <v>3173.0</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="I157" s="11">
         <v>45.0</v>
@@ -8197,21 +8293,21 @@
         <v>54.0</v>
       </c>
     </row>
-    <row r="158" ht="15.75" hidden="1" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="3">
         <v>854.0</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C158" s="3">
         <v>3175.0</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>47</v>
@@ -8235,30 +8331,30 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="159" ht="15.75" hidden="1" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="3">
         <v>855.0</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C159" s="3">
         <v>3186.0</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="I159" s="11">
         <v>11.86</v>
@@ -8280,23 +8376,26 @@
       <c r="A160" s="3">
         <v>856.0</v>
       </c>
+      <c r="B160" s="4" t="s">
+        <v>503</v>
+      </c>
       <c r="C160" s="3">
         <v>3232.0</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="I160" s="11">
         <v>413.48</v>
@@ -8318,29 +8417,32 @@
       <c r="A161" s="3">
         <v>857.0</v>
       </c>
+      <c r="B161" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="C161" s="3">
         <v>3233.0</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="I161" s="11">
         <v>481.7</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="K161" s="11">
         <v>0.0</v>
@@ -8352,30 +8454,30 @@
         <v>481.7</v>
       </c>
     </row>
-    <row r="162" ht="15.75" hidden="1" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="3">
         <v>858.0</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="C162" s="3">
         <v>3150.0</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I162" s="11">
         <v>145.0</v>
@@ -8393,27 +8495,27 @@
         <v>175.45</v>
       </c>
     </row>
-    <row r="163" ht="15.75" hidden="1" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="3">
         <v>859.0</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="C163" s="3">
         <v>3279.0</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I163" s="11">
         <v>80.99</v>
@@ -9257,13 +9359,7 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$163">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="HANGZHOU GREAT INV-ES-1133241395-2022-1013.pdf"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$Z$163"/>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
